--- a/troc16_4sz_ISA.xlsx
+++ b/troc16_4sz_ISA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="27795" windowHeight="11325" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="27795" windowHeight="11325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="inst formats" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1001">
   <si>
     <t>z</t>
   </si>
@@ -2802,18 +2802,6 @@
     <t>00111</t>
   </si>
   <si>
-    <t>01000</t>
-  </si>
-  <si>
-    <t>01001</t>
-  </si>
-  <si>
-    <t>01010</t>
-  </si>
-  <si>
-    <t>Room for 21 more functions</t>
-  </si>
-  <si>
     <t>if n not “10000” do a one operand function fn(D) =&gt; D</t>
   </si>
   <si>
@@ -3077,21 +3065,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>TROC24 16-bit p2FUNC instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>00 000110</t>
   </si>
   <si>
@@ -3830,9 +3803,6 @@
     <t>branch bit clear for bits 32 and up</t>
   </si>
   <si>
-    <t>p2fCVTUS</t>
-  </si>
-  <si>
     <t>p2fCVTS</t>
   </si>
   <si>
@@ -3863,9 +3833,6 @@
     <t>p2fTAG</t>
   </si>
   <si>
-    <t>01011</t>
-  </si>
-  <si>
     <t>p2fITAG</t>
   </si>
   <si>
@@ -3875,9 +3842,6 @@
     <t>place residue four LSB bits into D's tag</t>
   </si>
   <si>
-    <t>Room for 20 more functions</t>
-  </si>
-  <si>
     <t>If immediate address is register S + N, otherwise address is S +  R</t>
   </si>
   <si>
@@ -3897,6 +3861,72 @@
   </si>
   <si>
     <t>p2EXTRCT</t>
+  </si>
+  <si>
+    <t>11100</t>
+  </si>
+  <si>
+    <t>11101</t>
+  </si>
+  <si>
+    <t>11110</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>Room for 14 more functions</t>
+  </si>
+  <si>
+    <t>p2fLDUS</t>
+  </si>
+  <si>
+    <t>01100</t>
+  </si>
+  <si>
+    <t>01101</t>
+  </si>
+  <si>
+    <t>01110</t>
+  </si>
+  <si>
+    <t>01111</t>
+  </si>
+  <si>
+    <t>p2fST</t>
+  </si>
+  <si>
+    <t>Load residue with unsigned from M(D)</t>
+  </si>
+  <si>
+    <t>convert and store Residue to M(D)</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>Load residue with signed from M(D)</t>
+  </si>
+  <si>
+    <t>Load residue with float from M(D)</t>
+  </si>
+  <si>
+    <t>Load residue with float2 from M(D)</t>
+  </si>
+  <si>
+    <t>p2CfVTUS</t>
+  </si>
+  <si>
+    <t>Tag bits loaded from memory location N+1</t>
+  </si>
+  <si>
+    <t>Tab bits stored into memory location N+1</t>
+  </si>
+  <si>
+    <t>p2LDT</t>
+  </si>
+  <si>
+    <t>p2STT</t>
   </si>
 </sst>
 </file>
@@ -4907,9 +4937,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5029,9 +5056,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5104,6 +5128,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6310,7 +6340,7 @@
   </sheetPr>
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
@@ -7657,7 +7687,7 @@
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="12" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="H84" s="62"/>
       <c r="I84" s="62">
@@ -9789,10 +9819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F80"/>
+  <dimension ref="B1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9842,20 +9872,20 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="165" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" s="164" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="133" t="s">
         <v>647</v>
       </c>
-      <c r="C7" s="166"/>
+      <c r="C7" s="165"/>
       <c r="D7" s="132"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
     </row>
     <row r="8" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="163" t="s">
         <v>532</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -9864,7 +9894,7 @@
       <c r="E8" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="F8" s="183" t="s">
+      <c r="F8" s="181" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9872,16 +9902,16 @@
       <c r="B9" s="134" t="s">
         <v>559</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="142" t="s">
         <v>552</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="155" t="s">
         <v>472</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="F9" s="184" t="s">
+      <c r="F9" s="182" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9889,67 +9919,67 @@
       <c r="B10" s="135" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>433</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="F10" s="185" t="s">
+      <c r="F10" s="183" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="135" t="s">
-        <v>561</v>
-      </c>
-      <c r="C11" s="141" t="s">
+        <v>999</v>
+      </c>
+      <c r="C11" s="140" t="s">
         <v>552</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="F11" s="186" t="s">
-        <v>646</v>
+      <c r="F11" s="184" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="135" t="s">
-        <v>562</v>
-      </c>
-      <c r="C12" s="141" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="140" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="F12" s="186" t="s">
-        <v>728</v>
+      <c r="F12" s="184" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="135" t="s">
         <v>563</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="F13" s="186" t="s">
+      <c r="F13" s="184" t="s">
         <v>631</v>
       </c>
     </row>
@@ -9957,16 +9987,16 @@
       <c r="B14" s="135" t="s">
         <v>564</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>441</v>
       </c>
-      <c r="D14" s="157" t="s">
+      <c r="D14" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="F14" s="186" t="s">
+      <c r="F14" s="184" t="s">
         <v>633</v>
       </c>
     </row>
@@ -9974,16 +10004,16 @@
       <c r="B15" s="135" t="s">
         <v>565</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>442</v>
       </c>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="F15" s="186" t="s">
+      <c r="F15" s="184" t="s">
         <v>631</v>
       </c>
     </row>
@@ -9991,16 +10021,16 @@
       <c r="B16" s="135" t="s">
         <v>566</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="140" t="s">
         <v>443</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="F16" s="186" t="s">
+      <c r="F16" s="184" t="s">
         <v>631</v>
       </c>
     </row>
@@ -10008,65 +10038,65 @@
       <c r="B17" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>444</v>
       </c>
-      <c r="D17" s="157" t="s">
+      <c r="D17" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="F17" s="186" t="s">
+      <c r="F17" s="184" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="143" t="s">
         <v>568</v>
       </c>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="144" t="s">
         <v>445</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="145" t="s">
         <v>571</v>
       </c>
-      <c r="F18" s="186" t="s">
+      <c r="F18" s="184" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="147" t="s">
-        <v>984</v>
-      </c>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="146" t="s">
+        <v>976</v>
+      </c>
+      <c r="C19" s="147" t="s">
         <v>452</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="158" t="s">
         <v>600</v>
       </c>
-      <c r="E19" s="149" t="s">
+      <c r="E19" s="148" t="s">
         <v>572</v>
       </c>
-      <c r="F19" s="150"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="135" t="s">
-        <v>985</v>
-      </c>
-      <c r="C20" s="141" t="s">
+        <v>977</v>
+      </c>
+      <c r="C20" s="140" t="s">
         <v>452</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="185" t="s">
         <v>634</v>
       </c>
     </row>
@@ -10074,10 +10104,10 @@
       <c r="B21" s="135" t="s">
         <v>602</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="140" t="s">
         <v>446</v>
       </c>
-      <c r="D21" s="157"/>
+      <c r="D21" s="156"/>
       <c r="E21" s="11" t="s">
         <v>581</v>
       </c>
@@ -10085,18 +10115,18 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="135" t="s">
-        <v>986</v>
-      </c>
-      <c r="C22" s="141" t="s">
+        <v>978</v>
+      </c>
+      <c r="C22" s="140" t="s">
         <v>446</v>
       </c>
-      <c r="D22" s="157" t="s">
+      <c r="D22" s="156" t="s">
         <v>601</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="F22" s="187" t="s">
+      <c r="F22" s="185" t="s">
         <v>634</v>
       </c>
     </row>
@@ -10104,10 +10134,10 @@
       <c r="B23" s="136" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="141" t="s">
         <v>455</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -10119,10 +10149,10 @@
       <c r="B24" s="136" t="s">
         <v>604</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="141" t="s">
         <v>453</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -10134,84 +10164,84 @@
       <c r="B25" s="135" t="s">
         <v>605</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="140" t="s">
         <v>470</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="F25" s="186" t="s">
-        <v>982</v>
+      <c r="F25" s="184" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="135" t="s">
         <v>606</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="140" t="s">
         <v>471</v>
       </c>
-      <c r="D26" s="157" t="s">
+      <c r="D26" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="F26" s="186" t="s">
-        <v>982</v>
+      <c r="F26" s="184" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="135" t="s">
         <v>607</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="140" t="s">
         <v>447</v>
       </c>
-      <c r="D27" s="157" t="s">
+      <c r="D27" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="F27" s="186" t="s">
+      <c r="F27" s="184" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="143" t="s">
         <v>608</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="144" t="s">
         <v>448</v>
       </c>
-      <c r="D28" s="158" t="s">
+      <c r="D28" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="E28" s="146" t="s">
+      <c r="E28" s="145" t="s">
         <v>580</v>
       </c>
-      <c r="F28" s="186" t="s">
+      <c r="F28" s="184" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="146" t="s">
         <v>609</v>
       </c>
-      <c r="C29" s="153" t="s">
+      <c r="C29" s="152" t="s">
         <v>536</v>
       </c>
-      <c r="D29" s="159" t="s">
+      <c r="D29" s="158" t="s">
         <v>600</v>
       </c>
-      <c r="E29" s="149" t="s">
+      <c r="E29" s="148" t="s">
         <v>585</v>
       </c>
-      <c r="F29" s="188" t="s">
+      <c r="F29" s="186" t="s">
         <v>637</v>
       </c>
     </row>
@@ -10219,16 +10249,16 @@
       <c r="B30" s="135" t="s">
         <v>610</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="139" t="s">
         <v>537</v>
       </c>
-      <c r="D30" s="157" t="s">
+      <c r="D30" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="F30" s="186" t="s">
+      <c r="F30" s="184" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10236,16 +10266,16 @@
       <c r="B31" s="135" t="s">
         <v>611</v>
       </c>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="139" t="s">
         <v>538</v>
       </c>
-      <c r="D31" s="157" t="s">
+      <c r="D31" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="F31" s="186" t="s">
+      <c r="F31" s="184" t="s">
         <v>639</v>
       </c>
     </row>
@@ -10253,16 +10283,16 @@
       <c r="B32" s="135" t="s">
         <v>612</v>
       </c>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="139" t="s">
         <v>539</v>
       </c>
-      <c r="D32" s="157" t="s">
+      <c r="D32" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="F32" s="186" t="s">
+      <c r="F32" s="184" t="s">
         <v>640</v>
       </c>
     </row>
@@ -10270,16 +10300,16 @@
       <c r="B33" s="135" t="s">
         <v>613</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="D33" s="157" t="s">
+      <c r="D33" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="F33" s="186" t="s">
+      <c r="F33" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10287,16 +10317,16 @@
       <c r="B34" s="135" t="s">
         <v>614</v>
       </c>
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="139" t="s">
         <v>541</v>
       </c>
-      <c r="D34" s="157" t="s">
+      <c r="D34" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="F34" s="186" t="s">
+      <c r="F34" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10304,50 +10334,50 @@
       <c r="B35" s="135" t="s">
         <v>615</v>
       </c>
-      <c r="C35" s="140" t="s">
+      <c r="C35" s="139" t="s">
         <v>542</v>
       </c>
-      <c r="D35" s="157" t="s">
+      <c r="D35" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="F35" s="186" t="s">
+      <c r="F35" s="184" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="150" t="s">
         <v>616</v>
       </c>
-      <c r="C36" s="152" t="s">
+      <c r="C36" s="151" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="159" t="s">
         <v>601</v>
       </c>
-      <c r="E36" s="146" t="s">
+      <c r="E36" s="145" t="s">
         <v>593</v>
       </c>
-      <c r="F36" s="189" t="s">
+      <c r="F36" s="187" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="146" t="s">
         <v>617</v>
       </c>
-      <c r="C37" s="153" t="s">
+      <c r="C37" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="D37" s="159" t="s">
+      <c r="D37" s="158" t="s">
         <v>600</v>
       </c>
-      <c r="E37" s="149" t="s">
+      <c r="E37" s="148" t="s">
         <v>595</v>
       </c>
-      <c r="F37" s="188" t="s">
+      <c r="F37" s="186" t="s">
         <v>642</v>
       </c>
     </row>
@@ -10355,16 +10385,16 @@
       <c r="B38" s="135" t="s">
         <v>618</v>
       </c>
-      <c r="C38" s="140" t="s">
+      <c r="C38" s="139" t="s">
         <v>544</v>
       </c>
-      <c r="D38" s="157" t="s">
+      <c r="D38" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="F38" s="186" t="s">
+      <c r="F38" s="184" t="s">
         <v>644</v>
       </c>
     </row>
@@ -10372,16 +10402,16 @@
       <c r="B39" s="135" t="s">
         <v>619</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="139" t="s">
         <v>545</v>
       </c>
-      <c r="D39" s="157" t="s">
+      <c r="D39" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="184" t="s">
         <v>645</v>
       </c>
     </row>
@@ -10389,16 +10419,16 @@
       <c r="B40" s="135" t="s">
         <v>620</v>
       </c>
-      <c r="C40" s="140" t="s">
+      <c r="C40" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="D40" s="157" t="s">
+      <c r="D40" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="F40" s="186" t="s">
+      <c r="F40" s="184" t="s">
         <v>643</v>
       </c>
     </row>
@@ -10406,16 +10436,16 @@
       <c r="B41" s="135" t="s">
         <v>621</v>
       </c>
-      <c r="C41" s="140" t="s">
+      <c r="C41" s="139" t="s">
         <v>547</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="F41" s="186" t="s">
+      <c r="F41" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10423,16 +10453,16 @@
       <c r="B42" s="135" t="s">
         <v>622</v>
       </c>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="D42" s="157" t="s">
+      <c r="D42" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="F42" s="186" t="s">
+      <c r="F42" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10440,50 +10470,50 @@
       <c r="B43" s="135" t="s">
         <v>623</v>
       </c>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="139" t="s">
         <v>549</v>
       </c>
-      <c r="D43" s="157" t="s">
+      <c r="D43" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="F43" s="186" t="s">
+      <c r="F43" s="184" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="153" t="s">
         <v>624</v>
       </c>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="154" t="s">
         <v>551</v>
       </c>
-      <c r="D44" s="161" t="s">
+      <c r="D44" s="160" t="s">
         <v>601</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="F44" s="190" t="s">
+      <c r="F44" s="188" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="165" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" s="164" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="133" t="s">
         <v>648</v>
       </c>
-      <c r="C46" s="166"/>
+      <c r="C46" s="165"/>
       <c r="D46" s="132"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
     </row>
     <row r="47" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C47" s="164" t="s">
+      <c r="C47" s="163" t="s">
         <v>532</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -10497,16 +10527,16 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="169" t="s">
+      <c r="B48" s="168" t="s">
         <v>656</v>
       </c>
-      <c r="C48" s="170" t="s">
+      <c r="C48" s="169" t="s">
         <v>652</v>
       </c>
-      <c r="D48" s="156" t="s">
+      <c r="D48" s="155" t="s">
         <v>472</v>
       </c>
-      <c r="E48" s="171" t="s">
+      <c r="E48" s="170" t="s">
         <v>649</v>
       </c>
       <c r="F48" s="33" t="s">
@@ -10514,16 +10544,16 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="172" t="s">
+      <c r="B49" s="171" t="s">
         <v>657</v>
       </c>
-      <c r="C49" s="173" t="s">
+      <c r="C49" s="172" t="s">
         <v>653</v>
       </c>
-      <c r="D49" s="157" t="s">
+      <c r="D49" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E49" s="174" t="s">
+      <c r="E49" s="173" t="s">
         <v>661</v>
       </c>
       <c r="F49" s="12" t="s">
@@ -10531,31 +10561,31 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="171" t="s">
         <v>658</v>
       </c>
-      <c r="C50" s="173" t="s">
+      <c r="C50" s="172" t="s">
         <v>654</v>
       </c>
-      <c r="D50" s="157" t="s">
+      <c r="D50" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E50" s="174" t="s">
+      <c r="E50" s="173" t="s">
         <v>650</v>
       </c>
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="175" t="s">
+      <c r="B51" s="174" t="s">
         <v>659</v>
       </c>
-      <c r="C51" s="176" t="s">
+      <c r="C51" s="175" t="s">
         <v>655</v>
       </c>
-      <c r="D51" s="161" t="s">
+      <c r="D51" s="160" t="s">
         <v>472</v>
       </c>
-      <c r="E51" s="177" t="s">
+      <c r="E51" s="176" t="s">
         <v>651</v>
       </c>
       <c r="F51" s="34"/>
@@ -10564,15 +10594,15 @@
       <c r="B53" s="133" t="s">
         <v>663</v>
       </c>
-      <c r="F53" s="162" t="s">
+      <c r="F53" s="161" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="54" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C54" s="164" t="s">
+      <c r="C54" s="163" t="s">
         <v>532</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -10589,16 +10619,16 @@
       <c r="B55" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="C55" s="194" t="s">
-        <v>738</v>
-      </c>
-      <c r="D55" s="156" t="s">
+      <c r="C55" s="192" t="s">
+        <v>733</v>
+      </c>
+      <c r="D55" s="155" t="s">
         <v>472</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="F55" s="191" t="s">
+      <c r="F55" s="189" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10606,16 +10636,16 @@
       <c r="B56" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C56" s="179" t="s">
+      <c r="C56" s="178" t="s">
         <v>665</v>
       </c>
-      <c r="D56" s="157" t="s">
+      <c r="D56" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="F56" s="186" t="s">
+      <c r="F56" s="184" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10623,16 +10653,16 @@
       <c r="B57" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C57" s="179" t="s">
-        <v>739</v>
-      </c>
-      <c r="D57" s="157" t="s">
+      <c r="C57" s="178" t="s">
+        <v>734</v>
+      </c>
+      <c r="D57" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="F57" s="186" t="s">
+      <c r="F57" s="184" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10640,16 +10670,16 @@
       <c r="B58" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C58" s="179" t="s">
-        <v>740</v>
-      </c>
-      <c r="D58" s="157" t="s">
+      <c r="C58" s="178" t="s">
+        <v>735</v>
+      </c>
+      <c r="D58" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="F58" s="186" t="s">
+      <c r="F58" s="184" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10657,16 +10687,16 @@
       <c r="B59" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C59" s="179" t="s">
-        <v>773</v>
-      </c>
-      <c r="D59" s="157" t="s">
+      <c r="C59" s="178" t="s">
+        <v>768</v>
+      </c>
+      <c r="D59" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F59" s="186" t="s">
+      <c r="F59" s="184" t="s">
         <v>690</v>
       </c>
     </row>
@@ -10674,16 +10704,16 @@
       <c r="B60" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="C60" s="179" t="s">
+      <c r="C60" s="178" t="s">
         <v>667</v>
       </c>
-      <c r="D60" s="157" t="s">
+      <c r="D60" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F60" s="186" t="s">
+      <c r="F60" s="184" t="s">
         <v>690</v>
       </c>
     </row>
@@ -10691,16 +10721,16 @@
       <c r="B61" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="C61" s="179" t="s">
-        <v>774</v>
-      </c>
-      <c r="D61" s="157" t="s">
+      <c r="C61" s="178" t="s">
+        <v>769</v>
+      </c>
+      <c r="D61" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F61" s="186" t="s">
+      <c r="F61" s="184" t="s">
         <v>690</v>
       </c>
     </row>
@@ -10708,16 +10738,16 @@
       <c r="B62" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="C62" s="179" t="s">
-        <v>775</v>
-      </c>
-      <c r="D62" s="157" t="s">
+      <c r="C62" s="178" t="s">
+        <v>770</v>
+      </c>
+      <c r="D62" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F62" s="186" t="s">
+      <c r="F62" s="184" t="s">
         <v>690</v>
       </c>
     </row>
@@ -10725,16 +10755,16 @@
       <c r="B63" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C63" s="179" t="s">
-        <v>781</v>
-      </c>
-      <c r="D63" s="157" t="s">
+      <c r="C63" s="178" t="s">
+        <v>776</v>
+      </c>
+      <c r="D63" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="F63" s="186" t="s">
+      <c r="F63" s="184" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10742,16 +10772,16 @@
       <c r="B64" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="C64" s="195" t="s">
-        <v>782</v>
-      </c>
-      <c r="D64" s="161" t="s">
+      <c r="C64" s="193" t="s">
+        <v>777</v>
+      </c>
+      <c r="D64" s="160" t="s">
         <v>472</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="F64" s="190" t="s">
+      <c r="F64" s="188" t="s">
         <v>690</v>
       </c>
     </row>
@@ -10759,15 +10789,15 @@
       <c r="B66" s="133" t="s">
         <v>692</v>
       </c>
-      <c r="F66" s="193" t="s">
-        <v>715</v>
+      <c r="F66" s="191" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="67" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="163" t="s">
+      <c r="B67" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C67" s="164" t="s">
+      <c r="C67" s="163" t="s">
         <v>532</v>
       </c>
       <c r="D67" s="25" t="s">
@@ -10776,186 +10806,261 @@
       <c r="E67" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="F67" s="183" t="s">
+      <c r="F67" s="181" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="181" t="s">
+      <c r="B68" s="180" t="s">
         <v>716</v>
       </c>
       <c r="C68" s="139" t="s">
         <v>703</v>
       </c>
-      <c r="D68" s="156"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="180" t="s">
+        <v>717</v>
+      </c>
+      <c r="C69" s="139" t="s">
+        <v>704</v>
+      </c>
+      <c r="D69" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="180" t="s">
+        <v>718</v>
+      </c>
+      <c r="C70" s="139" t="s">
+        <v>705</v>
+      </c>
+      <c r="D70" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="180" t="s">
+        <v>719</v>
+      </c>
+      <c r="C71" s="139" t="s">
+        <v>706</v>
+      </c>
+      <c r="D71" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="F71" s="190"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="180" t="s">
+        <v>720</v>
+      </c>
+      <c r="C72" s="139" t="s">
+        <v>707</v>
+      </c>
+      <c r="D72" s="156"/>
+      <c r="E72" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="180" t="s">
+        <v>721</v>
+      </c>
+      <c r="C73" s="139" t="s">
+        <v>708</v>
+      </c>
+      <c r="D73" s="156"/>
+      <c r="E73" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="180" t="s">
+        <v>968</v>
+      </c>
+      <c r="C74" s="139" t="s">
+        <v>709</v>
+      </c>
+      <c r="D74" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="180" t="s">
+        <v>969</v>
+      </c>
+      <c r="C75" s="139" t="s">
+        <v>710</v>
+      </c>
+      <c r="D75" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C76" s="214" t="s">
+        <v>985</v>
+      </c>
+      <c r="D76" s="202"/>
+      <c r="E76" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C77" s="214" t="s">
+        <v>986</v>
+      </c>
+      <c r="D77" s="202"/>
+      <c r="E77" s="21" t="s">
+        <v>993</v>
+      </c>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C78" s="214" t="s">
+        <v>987</v>
+      </c>
+      <c r="D78" s="202"/>
+      <c r="E78" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C79" s="214" t="s">
+        <v>988</v>
+      </c>
+      <c r="D79" s="202"/>
+      <c r="E79" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="180" t="s">
+        <v>989</v>
+      </c>
+      <c r="C80" s="139" t="s">
+        <v>992</v>
+      </c>
+      <c r="D80" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="180" t="s">
+        <v>712</v>
+      </c>
+      <c r="C81" s="139" t="s">
+        <v>979</v>
+      </c>
+      <c r="D81" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="F68" s="33"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="182" t="s">
-        <v>717</v>
-      </c>
-      <c r="C69" s="140" t="s">
-        <v>704</v>
-      </c>
-      <c r="D69" s="157"/>
-      <c r="E69" s="11" t="s">
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="180" t="s">
+        <v>713</v>
+      </c>
+      <c r="C82" s="139" t="s">
+        <v>980</v>
+      </c>
+      <c r="D82" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="182" t="s">
-        <v>718</v>
-      </c>
-      <c r="C70" s="140" t="s">
-        <v>705</v>
-      </c>
-      <c r="D70" s="157"/>
-      <c r="E70" s="11" t="s">
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="180" t="s">
+        <v>714</v>
+      </c>
+      <c r="C83" s="139" t="s">
+        <v>981</v>
+      </c>
+      <c r="D83" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="182" t="s">
-        <v>719</v>
-      </c>
-      <c r="C71" s="140" t="s">
-        <v>706</v>
-      </c>
-      <c r="D71" s="157"/>
-      <c r="E71" s="11" t="s">
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="180" t="s">
+        <v>715</v>
+      </c>
+      <c r="C84" s="139" t="s">
+        <v>982</v>
+      </c>
+      <c r="D84" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="F71" s="192"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="182" t="s">
-        <v>720</v>
-      </c>
-      <c r="C72" s="140" t="s">
-        <v>707</v>
-      </c>
-      <c r="D72" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="182" t="s">
-        <v>721</v>
-      </c>
-      <c r="C73" s="140" t="s">
-        <v>708</v>
-      </c>
-      <c r="D73" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="182" t="s">
-        <v>722</v>
-      </c>
-      <c r="C74" s="140" t="s">
-        <v>709</v>
-      </c>
-      <c r="D74" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="182" t="s">
-        <v>723</v>
-      </c>
-      <c r="C75" s="140" t="s">
-        <v>710</v>
-      </c>
-      <c r="D75" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="F75" s="192"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="182" t="s">
-        <v>724</v>
-      </c>
-      <c r="C76" s="140" t="s">
-        <v>711</v>
-      </c>
-      <c r="D76" s="157"/>
-      <c r="E76" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="182" t="s">
-        <v>725</v>
-      </c>
-      <c r="C77" s="140" t="s">
-        <v>712</v>
-      </c>
-      <c r="D77" s="157"/>
-      <c r="E77" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="172" t="s">
-        <v>974</v>
-      </c>
-      <c r="C78" s="140" t="s">
-        <v>713</v>
-      </c>
-      <c r="D78" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="172" t="s">
-        <v>976</v>
-      </c>
-      <c r="C79" s="140" t="s">
-        <v>975</v>
-      </c>
-      <c r="D79" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15"/>
-      <c r="C80" s="168"/>
-      <c r="D80" s="161"/>
-      <c r="E80" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="F80" s="34"/>
+      <c r="F84" s="190"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="15"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="F85" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10964,10 +11069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F172"/>
+  <dimension ref="B1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11008,29 +11113,29 @@
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="133"/>
       <c r="E5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="133"/>
       <c r="E6" s="8" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="165" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="164" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="133" t="s">
-        <v>726</v>
-      </c>
-      <c r="C7" s="166"/>
+        <v>722</v>
+      </c>
+      <c r="C7" s="165"/>
       <c r="D7" s="132"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
     </row>
     <row r="8" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="163" t="s">
         <v>532</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -11039,7 +11144,7 @@
       <c r="E8" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="F8" s="183" t="s">
+      <c r="F8" s="181" t="s">
         <v>534</v>
       </c>
     </row>
@@ -11047,16 +11152,16 @@
       <c r="B9" s="134" t="s">
         <v>559</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="142" t="s">
         <v>552</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="155" t="s">
         <v>472</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="F9" s="184" t="s">
+      <c r="F9" s="182" t="s">
         <v>630</v>
       </c>
     </row>
@@ -11064,16 +11169,16 @@
       <c r="B10" s="135" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>433</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="F10" s="185" t="s">
+      <c r="F10" s="183" t="s">
         <v>630</v>
       </c>
     </row>
@@ -11081,16 +11186,16 @@
       <c r="B11" s="135" t="s">
         <v>561</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="140" t="s">
         <v>552</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="184" t="s">
         <v>646</v>
       </c>
     </row>
@@ -11098,48 +11203,48 @@
       <c r="B12" s="135" t="s">
         <v>562</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="F12" s="186" t="s">
-        <v>728</v>
+      <c r="F12" s="184" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="135" t="s">
         <v>563</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="F13" s="186"/>
+        <v>725</v>
+      </c>
+      <c r="F13" s="184"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="135" t="s">
         <v>564</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>441</v>
       </c>
-      <c r="D14" s="157" t="s">
+      <c r="D14" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="F14" s="186" t="s">
+      <c r="F14" s="184" t="s">
         <v>633</v>
       </c>
     </row>
@@ -11147,91 +11252,91 @@
       <c r="B15" s="135" t="s">
         <v>565</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>442</v>
       </c>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="F15" s="186"/>
+        <v>726</v>
+      </c>
+      <c r="F15" s="184"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="135" t="s">
         <v>566</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="140" t="s">
         <v>443</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="F16" s="186"/>
+        <v>727</v>
+      </c>
+      <c r="F16" s="184"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>444</v>
       </c>
-      <c r="D17" s="157" t="s">
+      <c r="D17" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F17" s="186"/>
+        <v>728</v>
+      </c>
+      <c r="F17" s="184"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="143" t="s">
         <v>568</v>
       </c>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="144" t="s">
         <v>445</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="E18" s="146" t="s">
-        <v>733</v>
-      </c>
-      <c r="F18" s="186"/>
+      <c r="E18" s="145" t="s">
+        <v>729</v>
+      </c>
+      <c r="F18" s="184"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="147" t="s">
-        <v>984</v>
-      </c>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="146" t="s">
+        <v>976</v>
+      </c>
+      <c r="C19" s="147" t="s">
         <v>452</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="158" t="s">
         <v>600</v>
       </c>
-      <c r="E19" s="149" t="s">
+      <c r="E19" s="148" t="s">
         <v>572</v>
       </c>
-      <c r="F19" s="150"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="135" t="s">
-        <v>985</v>
-      </c>
-      <c r="C20" s="141" t="s">
+        <v>977</v>
+      </c>
+      <c r="C20" s="140" t="s">
         <v>452</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="185" t="s">
         <v>634</v>
       </c>
     </row>
@@ -11239,10 +11344,10 @@
       <c r="B21" s="135" t="s">
         <v>602</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="140" t="s">
         <v>446</v>
       </c>
-      <c r="D21" s="157"/>
+      <c r="D21" s="156"/>
       <c r="E21" s="11" t="s">
         <v>581</v>
       </c>
@@ -11250,18 +11355,18 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="135" t="s">
-        <v>986</v>
-      </c>
-      <c r="C22" s="141" t="s">
+        <v>978</v>
+      </c>
+      <c r="C22" s="140" t="s">
         <v>446</v>
       </c>
-      <c r="D22" s="157" t="s">
+      <c r="D22" s="156" t="s">
         <v>601</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="F22" s="187" t="s">
+      <c r="F22" s="185" t="s">
         <v>634</v>
       </c>
     </row>
@@ -11269,10 +11374,10 @@
       <c r="B23" s="136" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="141" t="s">
         <v>455</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -11284,10 +11389,10 @@
       <c r="B24" s="136" t="s">
         <v>604</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="141" t="s">
         <v>453</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -11299,16 +11404,16 @@
       <c r="B25" s="135" t="s">
         <v>605</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="140" t="s">
         <v>470</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="F25" s="186" t="s">
+      <c r="F25" s="184" t="s">
         <v>635</v>
       </c>
     </row>
@@ -11316,16 +11421,16 @@
       <c r="B26" s="135" t="s">
         <v>606</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="140" t="s">
         <v>471</v>
       </c>
-      <c r="D26" s="157" t="s">
+      <c r="D26" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="F26" s="186" t="s">
+      <c r="F26" s="184" t="s">
         <v>635</v>
       </c>
     </row>
@@ -11333,50 +11438,50 @@
       <c r="B27" s="135" t="s">
         <v>607</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="140" t="s">
         <v>447</v>
       </c>
-      <c r="D27" s="157" t="s">
+      <c r="D27" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="F27" s="186" t="s">
+      <c r="F27" s="184" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="143" t="s">
         <v>608</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="144" t="s">
         <v>448</v>
       </c>
-      <c r="D28" s="158" t="s">
+      <c r="D28" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="E28" s="146" t="s">
+      <c r="E28" s="145" t="s">
         <v>580</v>
       </c>
-      <c r="F28" s="186" t="s">
+      <c r="F28" s="184" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="146" t="s">
         <v>609</v>
       </c>
-      <c r="C29" s="153" t="s">
+      <c r="C29" s="152" t="s">
         <v>536</v>
       </c>
-      <c r="D29" s="159" t="s">
+      <c r="D29" s="158" t="s">
         <v>600</v>
       </c>
-      <c r="E29" s="149" t="s">
+      <c r="E29" s="148" t="s">
         <v>585</v>
       </c>
-      <c r="F29" s="188" t="s">
+      <c r="F29" s="186" t="s">
         <v>637</v>
       </c>
     </row>
@@ -11384,16 +11489,16 @@
       <c r="B30" s="135" t="s">
         <v>610</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="139" t="s">
         <v>537</v>
       </c>
-      <c r="D30" s="157" t="s">
+      <c r="D30" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="F30" s="186" t="s">
+      <c r="F30" s="184" t="s">
         <v>638</v>
       </c>
     </row>
@@ -11401,16 +11506,16 @@
       <c r="B31" s="135" t="s">
         <v>611</v>
       </c>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="139" t="s">
         <v>538</v>
       </c>
-      <c r="D31" s="157" t="s">
+      <c r="D31" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="F31" s="186" t="s">
+      <c r="F31" s="184" t="s">
         <v>639</v>
       </c>
     </row>
@@ -11418,16 +11523,16 @@
       <c r="B32" s="135" t="s">
         <v>612</v>
       </c>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="139" t="s">
         <v>539</v>
       </c>
-      <c r="D32" s="157" t="s">
+      <c r="D32" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="F32" s="186" t="s">
+      <c r="F32" s="184" t="s">
         <v>640</v>
       </c>
     </row>
@@ -11435,16 +11540,16 @@
       <c r="B33" s="135" t="s">
         <v>613</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="D33" s="157" t="s">
+      <c r="D33" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="F33" s="186" t="s">
+      <c r="F33" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -11452,16 +11557,16 @@
       <c r="B34" s="135" t="s">
         <v>614</v>
       </c>
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="139" t="s">
         <v>541</v>
       </c>
-      <c r="D34" s="157" t="s">
+      <c r="D34" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="F34" s="186" t="s">
+      <c r="F34" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -11469,50 +11574,50 @@
       <c r="B35" s="135" t="s">
         <v>615</v>
       </c>
-      <c r="C35" s="140" t="s">
+      <c r="C35" s="139" t="s">
         <v>542</v>
       </c>
-      <c r="D35" s="157" t="s">
+      <c r="D35" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="F35" s="186" t="s">
+      <c r="F35" s="184" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="150" t="s">
         <v>616</v>
       </c>
-      <c r="C36" s="152" t="s">
+      <c r="C36" s="151" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="159" t="s">
         <v>601</v>
       </c>
-      <c r="E36" s="146" t="s">
+      <c r="E36" s="145" t="s">
         <v>593</v>
       </c>
-      <c r="F36" s="189" t="s">
+      <c r="F36" s="187" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="146" t="s">
         <v>617</v>
       </c>
-      <c r="C37" s="153" t="s">
+      <c r="C37" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="D37" s="159" t="s">
+      <c r="D37" s="158" t="s">
         <v>600</v>
       </c>
-      <c r="E37" s="149" t="s">
+      <c r="E37" s="148" t="s">
         <v>595</v>
       </c>
-      <c r="F37" s="188" t="s">
+      <c r="F37" s="186" t="s">
         <v>642</v>
       </c>
     </row>
@@ -11520,16 +11625,16 @@
       <c r="B38" s="135" t="s">
         <v>618</v>
       </c>
-      <c r="C38" s="140" t="s">
+      <c r="C38" s="139" t="s">
         <v>544</v>
       </c>
-      <c r="D38" s="157" t="s">
+      <c r="D38" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="F38" s="186" t="s">
+      <c r="F38" s="184" t="s">
         <v>644</v>
       </c>
     </row>
@@ -11537,16 +11642,16 @@
       <c r="B39" s="135" t="s">
         <v>619</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="139" t="s">
         <v>545</v>
       </c>
-      <c r="D39" s="157" t="s">
+      <c r="D39" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="184" t="s">
         <v>645</v>
       </c>
     </row>
@@ -11554,16 +11659,16 @@
       <c r="B40" s="135" t="s">
         <v>620</v>
       </c>
-      <c r="C40" s="140" t="s">
+      <c r="C40" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="D40" s="157" t="s">
+      <c r="D40" s="156" t="s">
         <v>600</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="F40" s="186" t="s">
+      <c r="F40" s="184" t="s">
         <v>643</v>
       </c>
     </row>
@@ -11571,16 +11676,16 @@
       <c r="B41" s="135" t="s">
         <v>621</v>
       </c>
-      <c r="C41" s="140" t="s">
+      <c r="C41" s="139" t="s">
         <v>547</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="F41" s="186" t="s">
+      <c r="F41" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -11588,16 +11693,16 @@
       <c r="B42" s="135" t="s">
         <v>622</v>
       </c>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="D42" s="157" t="s">
+      <c r="D42" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="F42" s="186" t="s">
+      <c r="F42" s="184" t="s">
         <v>629</v>
       </c>
     </row>
@@ -11605,49 +11710,49 @@
       <c r="B43" s="135" t="s">
         <v>623</v>
       </c>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="139" t="s">
         <v>549</v>
       </c>
-      <c r="D43" s="157" t="s">
+      <c r="D43" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="F43" s="186" t="s">
+      <c r="F43" s="184" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="153" t="s">
         <v>624</v>
       </c>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="154" t="s">
         <v>551</v>
       </c>
-      <c r="D44" s="161" t="s">
+      <c r="D44" s="160" t="s">
         <v>601</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="F44" s="190" t="s">
+      <c r="F44" s="188" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="133" t="s">
-        <v>737</v>
-      </c>
-      <c r="F46" s="193" t="s">
-        <v>715</v>
+        <v>692</v>
+      </c>
+      <c r="F46" s="191" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C47" s="164" t="s">
+      <c r="C47" s="163" t="s">
         <v>532</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -11656,1744 +11761,1819 @@
       <c r="E47" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="F47" s="183" t="s">
+      <c r="F47" s="181" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="169" t="s">
-        <v>964</v>
+      <c r="B48" s="180" t="s">
+        <v>962</v>
       </c>
       <c r="C48" s="139" t="s">
         <v>703</v>
       </c>
-      <c r="D48" s="156"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="180" t="s">
+        <v>963</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>704</v>
+      </c>
+      <c r="D49" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="180" t="s">
+        <v>964</v>
+      </c>
+      <c r="C50" s="139" t="s">
+        <v>705</v>
+      </c>
+      <c r="D50" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="180" t="s">
+        <v>965</v>
+      </c>
+      <c r="C51" s="139" t="s">
+        <v>706</v>
+      </c>
+      <c r="D51" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="F51" s="190"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="180" t="s">
+        <v>966</v>
+      </c>
+      <c r="C52" s="139" t="s">
+        <v>707</v>
+      </c>
+      <c r="D52" s="156"/>
+      <c r="E52" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="180" t="s">
+        <v>967</v>
+      </c>
+      <c r="C53" s="139" t="s">
+        <v>708</v>
+      </c>
+      <c r="D53" s="156"/>
+      <c r="E53" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="180" t="s">
+        <v>968</v>
+      </c>
+      <c r="C54" s="139" t="s">
+        <v>709</v>
+      </c>
+      <c r="D54" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="180" t="s">
+        <v>969</v>
+      </c>
+      <c r="C55" s="139" t="s">
+        <v>710</v>
+      </c>
+      <c r="D55" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C56" s="214" t="s">
+        <v>985</v>
+      </c>
+      <c r="D56" s="202"/>
+      <c r="E56" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C57" s="214" t="s">
+        <v>986</v>
+      </c>
+      <c r="D57" s="202"/>
+      <c r="E57" s="21" t="s">
+        <v>993</v>
+      </c>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C58" s="214" t="s">
+        <v>987</v>
+      </c>
+      <c r="D58" s="202"/>
+      <c r="E58" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="213" t="s">
+        <v>984</v>
+      </c>
+      <c r="C59" s="214" t="s">
+        <v>988</v>
+      </c>
+      <c r="D59" s="202"/>
+      <c r="E59" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="180" t="s">
+        <v>989</v>
+      </c>
+      <c r="C60" s="139" t="s">
+        <v>992</v>
+      </c>
+      <c r="D60" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="180" t="s">
+        <v>996</v>
+      </c>
+      <c r="C61" s="139" t="s">
+        <v>979</v>
+      </c>
+      <c r="D61" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="F48" s="33"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="172" t="s">
-        <v>965</v>
-      </c>
-      <c r="C49" s="140" t="s">
-        <v>704</v>
-      </c>
-      <c r="D49" s="157"/>
-      <c r="E49" s="11" t="s">
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="180" t="s">
+        <v>959</v>
+      </c>
+      <c r="C62" s="139" t="s">
+        <v>980</v>
+      </c>
+      <c r="D62" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="172" t="s">
-        <v>966</v>
-      </c>
-      <c r="C50" s="140" t="s">
-        <v>705</v>
-      </c>
-      <c r="D50" s="157"/>
-      <c r="E50" s="11" t="s">
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="180" t="s">
+        <v>960</v>
+      </c>
+      <c r="C63" s="139" t="s">
+        <v>981</v>
+      </c>
+      <c r="D63" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="172" t="s">
-        <v>967</v>
-      </c>
-      <c r="C51" s="140" t="s">
-        <v>706</v>
-      </c>
-      <c r="D51" s="157"/>
-      <c r="E51" s="11" t="s">
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="180" t="s">
+        <v>961</v>
+      </c>
+      <c r="C64" s="139" t="s">
+        <v>982</v>
+      </c>
+      <c r="D64" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="F51" s="192"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="172" t="s">
-        <v>968</v>
-      </c>
-      <c r="C52" s="140" t="s">
-        <v>707</v>
-      </c>
-      <c r="D52" s="157" t="s">
+      <c r="F64" s="190"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="15"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="67" spans="2:6" s="164" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="133" t="s">
+        <v>731</v>
+      </c>
+      <c r="C67" s="165"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="166"/>
+      <c r="F67" s="166"/>
+    </row>
+    <row r="68" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="162" t="s">
+        <v>628</v>
+      </c>
+      <c r="C68" s="163" t="s">
+        <v>532</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="168" t="s">
+        <v>656</v>
+      </c>
+      <c r="C69" s="169" t="s">
+        <v>652</v>
+      </c>
+      <c r="D69" s="155" t="s">
         <v>472</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="172" t="s">
-        <v>969</v>
-      </c>
-      <c r="C53" s="140" t="s">
-        <v>708</v>
-      </c>
-      <c r="D53" s="157" t="s">
+      <c r="E69" s="170" t="s">
+        <v>649</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="171" t="s">
+        <v>657</v>
+      </c>
+      <c r="C70" s="172" t="s">
+        <v>653</v>
+      </c>
+      <c r="D70" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="172" t="s">
-        <v>970</v>
-      </c>
-      <c r="C54" s="140" t="s">
-        <v>709</v>
-      </c>
-      <c r="D54" s="157" t="s">
+      <c r="E70" s="173" t="s">
+        <v>661</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="171" t="s">
+        <v>658</v>
+      </c>
+      <c r="C71" s="172" t="s">
+        <v>654</v>
+      </c>
+      <c r="D71" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="172" t="s">
-        <v>971</v>
-      </c>
-      <c r="C55" s="140" t="s">
-        <v>710</v>
-      </c>
-      <c r="D55" s="157" t="s">
+      <c r="E71" s="173" t="s">
+        <v>650</v>
+      </c>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="174" t="s">
+        <v>659</v>
+      </c>
+      <c r="C72" s="175" t="s">
+        <v>655</v>
+      </c>
+      <c r="D72" s="160" t="s">
         <v>472</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="F55" s="192"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="172" t="s">
-        <v>972</v>
-      </c>
-      <c r="C56" s="140" t="s">
-        <v>711</v>
-      </c>
-      <c r="D56" s="157"/>
-      <c r="E56" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="172" t="s">
-        <v>973</v>
-      </c>
-      <c r="C57" s="140" t="s">
-        <v>712</v>
-      </c>
-      <c r="D57" s="157"/>
-      <c r="E57" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="172" t="s">
-        <v>974</v>
-      </c>
-      <c r="C58" s="140" t="s">
-        <v>713</v>
-      </c>
-      <c r="D58" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="172" t="s">
-        <v>976</v>
-      </c>
-      <c r="C59" s="140" t="s">
-        <v>975</v>
-      </c>
-      <c r="D59" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="16" t="s">
-        <v>979</v>
-      </c>
-      <c r="F60" s="34"/>
-    </row>
-    <row r="62" spans="2:6" s="165" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="133" t="s">
-        <v>735</v>
-      </c>
-      <c r="C62" s="166"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-    </row>
-    <row r="63" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="163" t="s">
+      <c r="E72" s="176" t="s">
+        <v>651</v>
+      </c>
+      <c r="F72" s="34"/>
+    </row>
+    <row r="74" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="133" t="s">
+        <v>732</v>
+      </c>
+      <c r="F74" s="161" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C63" s="164" t="s">
+      <c r="C75" s="163" t="s">
         <v>532</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D75" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E75" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F75" s="25" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="169" t="s">
-        <v>656</v>
-      </c>
-      <c r="C64" s="170" t="s">
-        <v>652</v>
-      </c>
-      <c r="D64" s="156" t="s">
-        <v>472</v>
-      </c>
-      <c r="E64" s="171" t="s">
-        <v>649</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="172" t="s">
-        <v>657</v>
-      </c>
-      <c r="C65" s="173" t="s">
-        <v>653</v>
-      </c>
-      <c r="D65" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E65" s="174" t="s">
-        <v>661</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="172" t="s">
-        <v>658</v>
-      </c>
-      <c r="C66" s="173" t="s">
-        <v>654</v>
-      </c>
-      <c r="D66" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E66" s="174" t="s">
-        <v>650</v>
-      </c>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="175" t="s">
-        <v>659</v>
-      </c>
-      <c r="C67" s="176" t="s">
-        <v>655</v>
-      </c>
-      <c r="D67" s="161" t="s">
-        <v>472</v>
-      </c>
-      <c r="E67" s="177" t="s">
-        <v>651</v>
-      </c>
-      <c r="F67" s="34"/>
-    </row>
-    <row r="69" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="133" t="s">
-        <v>736</v>
-      </c>
-      <c r="F69" s="162" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="137" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="163" t="s">
-        <v>628</v>
-      </c>
-      <c r="C70" s="164" t="s">
-        <v>532</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="C71" s="199" t="s">
-        <v>793</v>
-      </c>
-      <c r="D71" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="F71" s="186" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C72" s="179" t="s">
-        <v>794</v>
-      </c>
-      <c r="D72" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="F72" s="186" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="C73" s="179" t="s">
-        <v>795</v>
-      </c>
-      <c r="D73" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="F73" s="186" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="C74" s="179" t="s">
-        <v>796</v>
-      </c>
-      <c r="D74" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F74" s="186" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="C75" s="179" t="s">
-        <v>797</v>
-      </c>
-      <c r="D75" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="F75" s="186" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="C76" s="179" t="s">
-        <v>798</v>
-      </c>
-      <c r="D76" s="157" t="s">
+        <v>745</v>
+      </c>
+      <c r="C76" s="197" t="s">
+        <v>788</v>
+      </c>
+      <c r="D76" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="F76" s="186" t="s">
-        <v>690</v>
+        <v>749</v>
+      </c>
+      <c r="F76" s="184" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="C77" s="179" t="s">
-        <v>799</v>
-      </c>
-      <c r="D77" s="157" t="s">
+        <v>679</v>
+      </c>
+      <c r="C77" s="178" t="s">
+        <v>789</v>
+      </c>
+      <c r="D77" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="F77" s="186" t="s">
-        <v>741</v>
+        <v>672</v>
+      </c>
+      <c r="F77" s="184" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="C78" s="207" t="s">
-        <v>800</v>
-      </c>
-      <c r="D78" s="157" t="s">
+        <v>746</v>
+      </c>
+      <c r="C78" s="178" t="s">
+        <v>790</v>
+      </c>
+      <c r="D78" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="F78" s="186" t="s">
-        <v>742</v>
+        <v>750</v>
+      </c>
+      <c r="F78" s="184" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="C79" s="199" t="s">
-        <v>801</v>
-      </c>
-      <c r="D79" s="157" t="s">
+        <v>683</v>
+      </c>
+      <c r="C79" s="178" t="s">
+        <v>791</v>
+      </c>
+      <c r="D79" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="F79" s="186" t="s">
-        <v>689</v>
+        <v>751</v>
+      </c>
+      <c r="F79" s="184" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="C80" s="179" t="s">
-        <v>802</v>
-      </c>
-      <c r="D80" s="157" t="s">
+        <v>741</v>
+      </c>
+      <c r="C80" s="178" t="s">
+        <v>792</v>
+      </c>
+      <c r="D80" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="F80" s="186" t="s">
-        <v>690</v>
+        <v>738</v>
+      </c>
+      <c r="F80" s="184" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="C81" s="179" t="s">
-        <v>803</v>
-      </c>
-      <c r="D81" s="157" t="s">
+        <v>742</v>
+      </c>
+      <c r="C81" s="178" t="s">
+        <v>793</v>
+      </c>
+      <c r="D81" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="F81" s="186" t="s">
-        <v>741</v>
+        <v>673</v>
+      </c>
+      <c r="F81" s="184" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="C82" s="179" t="s">
-        <v>804</v>
-      </c>
-      <c r="D82" s="157" t="s">
+        <v>743</v>
+      </c>
+      <c r="C82" s="178" t="s">
+        <v>794</v>
+      </c>
+      <c r="D82" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="F82" s="186" t="s">
-        <v>742</v>
+        <v>739</v>
+      </c>
+      <c r="F82" s="184" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="C83" s="179" t="s">
-        <v>805</v>
+      <c r="B83" s="204" t="s">
+        <v>744</v>
+      </c>
+      <c r="C83" s="205" t="s">
+        <v>795</v>
       </c>
       <c r="D83" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="F83" s="186" t="s">
+      <c r="E83" s="145" t="s">
+        <v>740</v>
+      </c>
+      <c r="F83" s="187" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="196" t="s">
+        <v>758</v>
+      </c>
+      <c r="C84" s="197" t="s">
+        <v>796</v>
+      </c>
+      <c r="D84" s="158" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" s="148" t="s">
+        <v>752</v>
+      </c>
+      <c r="F84" s="186" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="C84" s="179" t="s">
-        <v>806</v>
-      </c>
-      <c r="D84" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="F84" s="186" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="C85" s="179" t="s">
-        <v>807</v>
-      </c>
-      <c r="D85" s="157" t="s">
+        <v>759</v>
+      </c>
+      <c r="C85" s="178" t="s">
+        <v>797</v>
+      </c>
+      <c r="D85" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="F85" s="186" t="s">
-        <v>741</v>
+        <v>676</v>
+      </c>
+      <c r="F85" s="184" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="206" t="s">
-        <v>770</v>
-      </c>
-      <c r="C86" s="207" t="s">
-        <v>808</v>
-      </c>
-      <c r="D86" s="158" t="s">
+      <c r="B86" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C86" s="178" t="s">
+        <v>798</v>
+      </c>
+      <c r="D86" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E86" s="146" t="s">
-        <v>772</v>
-      </c>
-      <c r="F86" s="189" t="s">
-        <v>742</v>
+      <c r="E86" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="F86" s="184" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="198" t="s">
-        <v>687</v>
-      </c>
-      <c r="C87" s="209" t="s">
-        <v>783</v>
-      </c>
-      <c r="D87" s="159" t="s">
+      <c r="B87" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C87" s="178" t="s">
+        <v>799</v>
+      </c>
+      <c r="D87" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E87" s="149" t="s">
-        <v>776</v>
-      </c>
-      <c r="F87" s="188" t="s">
-        <v>689</v>
+      <c r="E87" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F87" s="184" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>687</v>
+        <v>762</v>
       </c>
       <c r="C88" s="178" t="s">
-        <v>781</v>
-      </c>
-      <c r="D88" s="157" t="s">
+        <v>800</v>
+      </c>
+      <c r="D88" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="F88" s="186" t="s">
+        <v>755</v>
+      </c>
+      <c r="F88" s="184" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C89" s="178" t="s">
+        <v>801</v>
+      </c>
+      <c r="D89" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="F89" s="184" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="C89" s="196" t="s">
-        <v>784</v>
-      </c>
-      <c r="D89" s="160" t="s">
-        <v>472</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="F89" s="197" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>688</v>
+        <v>764</v>
       </c>
       <c r="C90" s="178" t="s">
-        <v>782</v>
-      </c>
-      <c r="D90" s="157" t="s">
+        <v>802</v>
+      </c>
+      <c r="D90" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E90" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="F90" s="184" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="204" t="s">
+        <v>765</v>
+      </c>
+      <c r="C91" s="205" t="s">
+        <v>803</v>
+      </c>
+      <c r="D91" s="157" t="s">
+        <v>472</v>
+      </c>
+      <c r="E91" s="145" t="s">
+        <v>767</v>
+      </c>
+      <c r="F91" s="187" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="196" t="s">
+        <v>687</v>
+      </c>
+      <c r="C92" s="207" t="s">
         <v>778</v>
       </c>
-      <c r="F90" s="186" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="C91" s="179" t="s">
-        <v>785</v>
-      </c>
-      <c r="D91" s="157"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="186"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="C92" s="179" t="s">
-        <v>786</v>
-      </c>
-      <c r="D92" s="157"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="186"/>
+      <c r="D92" s="158" t="s">
+        <v>472</v>
+      </c>
+      <c r="E92" s="148" t="s">
+        <v>771</v>
+      </c>
+      <c r="F92" s="186" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="C93" s="179" t="s">
-        <v>787</v>
-      </c>
-      <c r="D93" s="157"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="186"/>
+        <v>687</v>
+      </c>
+      <c r="C93" s="177" t="s">
+        <v>776</v>
+      </c>
+      <c r="D93" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="184" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="206" t="s">
-        <v>817</v>
-      </c>
-      <c r="C94" s="207" t="s">
-        <v>788</v>
-      </c>
-      <c r="D94" s="158"/>
-      <c r="E94" s="146"/>
-      <c r="F94" s="189"/>
+      <c r="B94" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="C94" s="194" t="s">
+        <v>779</v>
+      </c>
+      <c r="D94" s="159" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="F94" s="195" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="202" t="s">
-        <v>809</v>
-      </c>
-      <c r="C95" s="203" t="s">
-        <v>779</v>
-      </c>
-      <c r="D95" s="204" t="s">
+      <c r="B95" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C95" s="177" t="s">
+        <v>777</v>
+      </c>
+      <c r="D95" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F95" s="184" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C96" s="178" t="s">
+        <v>780</v>
+      </c>
+      <c r="D96" s="156"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="184"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C97" s="178" t="s">
+        <v>781</v>
+      </c>
+      <c r="D97" s="156"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="184"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C98" s="178" t="s">
+        <v>782</v>
+      </c>
+      <c r="D98" s="156"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="184"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="204" t="s">
+        <v>812</v>
+      </c>
+      <c r="C99" s="205" t="s">
+        <v>783</v>
+      </c>
+      <c r="D99" s="157"/>
+      <c r="E99" s="145"/>
+      <c r="F99" s="187"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="200" t="s">
+        <v>804</v>
+      </c>
+      <c r="C100" s="201" t="s">
+        <v>774</v>
+      </c>
+      <c r="D100" s="202" t="s">
         <v>600</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E100" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="F95" s="205"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="135" t="s">
-        <v>810</v>
-      </c>
-      <c r="C96" s="179" t="s">
-        <v>668</v>
-      </c>
-      <c r="D96" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="F96" s="186"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="135" t="s">
-        <v>811</v>
-      </c>
-      <c r="C97" s="179" t="s">
-        <v>780</v>
-      </c>
-      <c r="D97" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="F97" s="186"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="135" t="s">
-        <v>812</v>
-      </c>
-      <c r="C98" s="179" t="s">
-        <v>671</v>
-      </c>
-      <c r="D98" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F98" s="186"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="135" t="s">
-        <v>813</v>
-      </c>
-      <c r="C99" s="179" t="s">
-        <v>789</v>
-      </c>
-      <c r="D99" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="F99" s="186"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="135" t="s">
-        <v>814</v>
-      </c>
-      <c r="C100" s="179" t="s">
-        <v>790</v>
-      </c>
-      <c r="D100" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="F100" s="186"/>
+      <c r="F100" s="203"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="135" t="s">
+        <v>805</v>
+      </c>
+      <c r="C101" s="178" t="s">
+        <v>668</v>
+      </c>
+      <c r="D101" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F101" s="184"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="135" t="s">
+        <v>806</v>
+      </c>
+      <c r="C102" s="178" t="s">
+        <v>775</v>
+      </c>
+      <c r="D102" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="F102" s="184"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="135" t="s">
+        <v>807</v>
+      </c>
+      <c r="C103" s="178" t="s">
+        <v>671</v>
+      </c>
+      <c r="D103" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="F103" s="184"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="135" t="s">
+        <v>808</v>
+      </c>
+      <c r="C104" s="178" t="s">
+        <v>784</v>
+      </c>
+      <c r="D104" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F104" s="184"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="135" t="s">
+        <v>809</v>
+      </c>
+      <c r="C105" s="178" t="s">
+        <v>785</v>
+      </c>
+      <c r="D105" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F105" s="184"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="135" t="s">
+        <v>810</v>
+      </c>
+      <c r="C106" s="178" t="s">
+        <v>786</v>
+      </c>
+      <c r="D106" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F106" s="184"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="143" t="s">
+        <v>811</v>
+      </c>
+      <c r="C107" s="205" t="s">
+        <v>787</v>
+      </c>
+      <c r="D107" s="157" t="s">
+        <v>601</v>
+      </c>
+      <c r="E107" s="145" t="s">
+        <v>593</v>
+      </c>
+      <c r="F107" s="187"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="208" t="s">
+        <v>813</v>
+      </c>
+      <c r="C108" s="177" t="s">
+        <v>747</v>
+      </c>
+      <c r="D108" s="158"/>
+      <c r="E108" s="148"/>
+      <c r="F108" s="186"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="198" t="s">
+        <v>814</v>
+      </c>
+      <c r="C109" s="177" t="s">
+        <v>733</v>
+      </c>
+      <c r="D109" s="156"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="184"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="198" t="s">
         <v>815</v>
       </c>
-      <c r="C101" s="179" t="s">
-        <v>791</v>
-      </c>
-      <c r="D101" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="F101" s="186"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="144" t="s">
+      <c r="C110" s="177" t="s">
+        <v>756</v>
+      </c>
+      <c r="D110" s="156"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="184"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="198" t="s">
         <v>816</v>
       </c>
-      <c r="C102" s="207" t="s">
-        <v>792</v>
-      </c>
-      <c r="D102" s="158" t="s">
-        <v>601</v>
-      </c>
-      <c r="E102" s="146" t="s">
-        <v>593</v>
-      </c>
-      <c r="F102" s="189"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="210" t="s">
+      <c r="C111" s="177" t="s">
+        <v>768</v>
+      </c>
+      <c r="D111" s="156"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="184"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="198" t="s">
+        <v>817</v>
+      </c>
+      <c r="C112" s="177" t="s">
+        <v>664</v>
+      </c>
+      <c r="D112" s="156"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="184"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="198" t="s">
         <v>818</v>
       </c>
-      <c r="C103" s="178" t="s">
-        <v>752</v>
-      </c>
-      <c r="D103" s="159"/>
-      <c r="E103" s="149"/>
-      <c r="F103" s="188"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="200" t="s">
+      <c r="C113" s="177" t="s">
+        <v>665</v>
+      </c>
+      <c r="D113" s="156"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="184"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="198" t="s">
         <v>819</v>
       </c>
-      <c r="C104" s="178" t="s">
-        <v>738</v>
-      </c>
-      <c r="D104" s="157"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="186"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="200" t="s">
+      <c r="C114" s="177" t="s">
+        <v>666</v>
+      </c>
+      <c r="D114" s="156"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="184"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="209" t="s">
         <v>820</v>
       </c>
-      <c r="C105" s="178" t="s">
-        <v>761</v>
-      </c>
-      <c r="D105" s="157"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="186"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="200" t="s">
+      <c r="C115" s="206" t="s">
+        <v>667</v>
+      </c>
+      <c r="D115" s="157"/>
+      <c r="E115" s="145"/>
+      <c r="F115" s="187"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="208" t="s">
+        <v>940</v>
+      </c>
+      <c r="C116" s="207" t="s">
+        <v>748</v>
+      </c>
+      <c r="D116" s="158"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="186" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="198" t="s">
+        <v>942</v>
+      </c>
+      <c r="C117" s="177" t="s">
+        <v>734</v>
+      </c>
+      <c r="D117" s="156"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="184" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="198" t="s">
         <v>821</v>
       </c>
-      <c r="C106" s="178" t="s">
-        <v>773</v>
-      </c>
-      <c r="D106" s="157"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="186"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="200" t="s">
+      <c r="C118" s="177" t="s">
+        <v>757</v>
+      </c>
+      <c r="D118" s="156"/>
+      <c r="E118" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="F118" s="184"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="198" t="s">
         <v>822</v>
       </c>
-      <c r="C107" s="178" t="s">
-        <v>664</v>
-      </c>
-      <c r="D107" s="157"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="186"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="200" t="s">
+      <c r="C119" s="177" t="s">
+        <v>769</v>
+      </c>
+      <c r="D119" s="156"/>
+      <c r="E119" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="F119" s="184"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="198" t="s">
         <v>823</v>
       </c>
-      <c r="C108" s="178" t="s">
-        <v>665</v>
-      </c>
-      <c r="D108" s="157"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="186"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="200" t="s">
+      <c r="C120" s="177" t="s">
+        <v>669</v>
+      </c>
+      <c r="D120" s="156"/>
+      <c r="E120" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="F120" s="184"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="198" t="s">
         <v>824</v>
       </c>
-      <c r="C109" s="178" t="s">
-        <v>666</v>
-      </c>
-      <c r="D109" s="157"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="186"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="211" t="s">
+      <c r="C121" s="177" t="s">
+        <v>735</v>
+      </c>
+      <c r="D121" s="156"/>
+      <c r="E121" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="F121" s="184"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="198" t="s">
+        <v>944</v>
+      </c>
+      <c r="C122" s="177" t="s">
+        <v>670</v>
+      </c>
+      <c r="D122" s="156"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="184" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="199" t="s">
         <v>825</v>
       </c>
-      <c r="C110" s="208" t="s">
-        <v>667</v>
-      </c>
-      <c r="D110" s="158"/>
-      <c r="E110" s="146"/>
-      <c r="F110" s="189"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="210" t="s">
-        <v>945</v>
-      </c>
-      <c r="C111" s="209" t="s">
-        <v>753</v>
-      </c>
-      <c r="D111" s="159"/>
-      <c r="E111" s="149"/>
-      <c r="F111" s="188" t="s">
+      <c r="C123" s="179" t="s">
+        <v>770</v>
+      </c>
+      <c r="D123" s="160"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="188"/>
+    </row>
+    <row r="126" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="133" t="s">
+        <v>925</v>
+      </c>
+      <c r="F126" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="200" t="s">
-        <v>947</v>
-      </c>
-      <c r="C112" s="178" t="s">
-        <v>739</v>
-      </c>
-      <c r="D112" s="157"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="186" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="200" t="s">
-        <v>826</v>
-      </c>
-      <c r="C113" s="178" t="s">
-        <v>762</v>
-      </c>
-      <c r="D113" s="157"/>
-      <c r="E113" s="11" t="s">
-        <v>960</v>
-      </c>
-      <c r="F113" s="186"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="200" t="s">
-        <v>827</v>
-      </c>
-      <c r="C114" s="178" t="s">
-        <v>774</v>
-      </c>
-      <c r="D114" s="157"/>
-      <c r="E114" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="F114" s="186"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="200" t="s">
-        <v>828</v>
-      </c>
-      <c r="C115" s="178" t="s">
-        <v>669</v>
-      </c>
-      <c r="D115" s="157"/>
-      <c r="E115" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="F115" s="186"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="200" t="s">
-        <v>829</v>
-      </c>
-      <c r="C116" s="178" t="s">
-        <v>740</v>
-      </c>
-      <c r="D116" s="157"/>
-      <c r="E116" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="F116" s="186"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="200" t="s">
-        <v>949</v>
-      </c>
-      <c r="C117" s="178" t="s">
-        <v>670</v>
-      </c>
-      <c r="D117" s="157"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="186" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="201" t="s">
-        <v>830</v>
-      </c>
-      <c r="C118" s="180" t="s">
-        <v>775</v>
-      </c>
-      <c r="D118" s="161"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="190"/>
-    </row>
-    <row r="121" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="133" t="s">
-        <v>930</v>
-      </c>
-      <c r="F121" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="163" t="s">
+    <row r="127" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="C122" s="164" t="s">
+      <c r="C127" s="163" t="s">
         <v>532</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D127" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="E122" s="25" t="s">
+      <c r="E127" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="F122" s="25" t="s">
+      <c r="F127" s="25" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C123" s="199" t="s">
-        <v>912</v>
-      </c>
-      <c r="D123" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="F123" s="186" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="C124" s="179" t="s">
-        <v>913</v>
-      </c>
-      <c r="D124" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="F124" s="186" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="C125" s="179" t="s">
-        <v>914</v>
-      </c>
-      <c r="D125" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="F125" s="186" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="C126" s="179" t="s">
-        <v>915</v>
-      </c>
-      <c r="D126" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F126" s="186" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="C127" s="179" t="s">
-        <v>916</v>
-      </c>
-      <c r="D127" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="F127" s="186" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="C128" s="179" t="s">
-        <v>917</v>
-      </c>
-      <c r="D128" s="157" t="s">
+        <v>826</v>
+      </c>
+      <c r="C128" s="197" t="s">
+        <v>907</v>
+      </c>
+      <c r="D128" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="F128" s="186" t="s">
-        <v>953</v>
+        <v>749</v>
+      </c>
+      <c r="F128" s="184" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C129" s="179" t="s">
-        <v>918</v>
-      </c>
-      <c r="D129" s="157" t="s">
+        <v>830</v>
+      </c>
+      <c r="C129" s="178" t="s">
+        <v>908</v>
+      </c>
+      <c r="D129" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="F129" s="186" t="s">
-        <v>954</v>
+        <v>672</v>
+      </c>
+      <c r="F129" s="184" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="206" t="s">
-        <v>841</v>
-      </c>
-      <c r="C130" s="207" t="s">
-        <v>919</v>
-      </c>
-      <c r="D130" s="158" t="s">
+      <c r="B130" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C130" s="178" t="s">
+        <v>909</v>
+      </c>
+      <c r="D130" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E130" s="146" t="s">
-        <v>745</v>
-      </c>
-      <c r="F130" s="186" t="s">
-        <v>955</v>
+      <c r="E130" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="F130" s="184" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="198" t="s">
-        <v>842</v>
-      </c>
-      <c r="C131" s="199" t="s">
-        <v>920</v>
-      </c>
-      <c r="D131" s="159" t="s">
+      <c r="B131" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C131" s="178" t="s">
+        <v>910</v>
+      </c>
+      <c r="D131" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E131" s="149" t="s">
-        <v>757</v>
-      </c>
-      <c r="F131" s="186" t="s">
-        <v>952</v>
+      <c r="E131" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="F131" s="184" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="C132" s="179" t="s">
-        <v>921</v>
-      </c>
-      <c r="D132" s="157" t="s">
+        <v>833</v>
+      </c>
+      <c r="C132" s="178" t="s">
+        <v>911</v>
+      </c>
+      <c r="D132" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="F132" s="186" t="s">
-        <v>953</v>
+        <v>738</v>
+      </c>
+      <c r="F132" s="184" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C133" s="179" t="s">
-        <v>922</v>
-      </c>
-      <c r="D133" s="157" t="s">
+        <v>834</v>
+      </c>
+      <c r="C133" s="178" t="s">
+        <v>912</v>
+      </c>
+      <c r="D133" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="F133" s="186" t="s">
-        <v>954</v>
+        <v>673</v>
+      </c>
+      <c r="F133" s="184" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="C134" s="179" t="s">
-        <v>923</v>
-      </c>
-      <c r="D134" s="157" t="s">
+        <v>835</v>
+      </c>
+      <c r="C134" s="178" t="s">
+        <v>913</v>
+      </c>
+      <c r="D134" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="F134" s="186" t="s">
-        <v>955</v>
+        <v>739</v>
+      </c>
+      <c r="F134" s="184" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="C135" s="179" t="s">
-        <v>924</v>
+      <c r="B135" s="204" t="s">
+        <v>836</v>
+      </c>
+      <c r="C135" s="205" t="s">
+        <v>914</v>
       </c>
       <c r="D135" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="E135" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="F135" s="186" t="s">
-        <v>952</v>
+      <c r="E135" s="145" t="s">
+        <v>740</v>
+      </c>
+      <c r="F135" s="184" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C136" s="179" t="s">
-        <v>925</v>
-      </c>
-      <c r="D136" s="157" t="s">
+      <c r="B136" s="196" t="s">
+        <v>837</v>
+      </c>
+      <c r="C136" s="197" t="s">
+        <v>915</v>
+      </c>
+      <c r="D136" s="158" t="s">
         <v>472</v>
       </c>
-      <c r="E136" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="F136" s="186" t="s">
-        <v>953</v>
+      <c r="E136" s="148" t="s">
+        <v>752</v>
+      </c>
+      <c r="F136" s="184" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="C137" s="179" t="s">
-        <v>926</v>
-      </c>
-      <c r="D137" s="157" t="s">
+        <v>838</v>
+      </c>
+      <c r="C137" s="178" t="s">
+        <v>916</v>
+      </c>
+      <c r="D137" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="F137" s="186" t="s">
-        <v>954</v>
+        <v>676</v>
+      </c>
+      <c r="F137" s="184" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="206" t="s">
-        <v>849</v>
-      </c>
-      <c r="C138" s="207" t="s">
-        <v>927</v>
-      </c>
-      <c r="D138" s="158" t="s">
+      <c r="B138" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="C138" s="178" t="s">
+        <v>917</v>
+      </c>
+      <c r="D138" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E138" s="146" t="s">
-        <v>772</v>
-      </c>
-      <c r="F138" s="186" t="s">
-        <v>955</v>
+      <c r="E138" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="F138" s="184" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="198" t="s">
-        <v>878</v>
-      </c>
-      <c r="C139" s="209" t="s">
-        <v>896</v>
-      </c>
-      <c r="D139" s="159" t="s">
+      <c r="B139" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="C139" s="178" t="s">
+        <v>918</v>
+      </c>
+      <c r="D139" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E139" s="149" t="s">
-        <v>956</v>
-      </c>
-      <c r="F139" s="188" t="s">
-        <v>932</v>
+      <c r="E139" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F139" s="184" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C140" s="178" t="s">
-        <v>897</v>
-      </c>
-      <c r="D140" s="157" t="s">
+        <v>919</v>
+      </c>
+      <c r="D140" s="156" t="s">
         <v>472</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="F140" s="186" t="s">
-        <v>933</v>
+        <v>755</v>
+      </c>
+      <c r="F140" s="184" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="17" t="s">
-        <v>879</v>
-      </c>
-      <c r="C141" s="196" t="s">
-        <v>898</v>
-      </c>
-      <c r="D141" s="160" t="s">
+      <c r="B141" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="C141" s="178" t="s">
+        <v>920</v>
+      </c>
+      <c r="D141" s="156" t="s">
         <v>472</v>
       </c>
-      <c r="E141" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="F141" s="197" t="s">
-        <v>934</v>
+      <c r="E141" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="F141" s="184" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C142" s="178" t="s">
+        <v>921</v>
+      </c>
+      <c r="D142" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="F142" s="184" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="204" t="s">
+        <v>844</v>
+      </c>
+      <c r="C143" s="205" t="s">
+        <v>922</v>
+      </c>
+      <c r="D143" s="157" t="s">
+        <v>472</v>
+      </c>
+      <c r="E143" s="145" t="s">
+        <v>767</v>
+      </c>
+      <c r="F143" s="184" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="196" t="s">
+        <v>873</v>
+      </c>
+      <c r="C144" s="207" t="s">
+        <v>891</v>
+      </c>
+      <c r="D144" s="158" t="s">
+        <v>472</v>
+      </c>
+      <c r="E144" s="148" t="s">
+        <v>951</v>
+      </c>
+      <c r="F144" s="186" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="C145" s="177" t="s">
+        <v>892</v>
+      </c>
+      <c r="D145" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F145" s="184" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="C146" s="194" t="s">
+        <v>893</v>
+      </c>
+      <c r="D146" s="159" t="s">
+        <v>472</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="F146" s="195" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="C147" s="177" t="s">
+        <v>894</v>
+      </c>
+      <c r="D147" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="F147" s="184" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="198" t="s">
+        <v>926</v>
+      </c>
+      <c r="C148" s="178" t="s">
+        <v>895</v>
+      </c>
+      <c r="D148" s="156"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="184" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="198" t="s">
+        <v>847</v>
+      </c>
+      <c r="C149" s="178" t="s">
+        <v>896</v>
+      </c>
+      <c r="D149" s="156"/>
+      <c r="E149" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="F149" s="184" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="198" t="s">
+        <v>827</v>
+      </c>
+      <c r="C150" s="178" t="s">
+        <v>897</v>
+      </c>
+      <c r="D150" s="156"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="184"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="204" t="s">
+        <v>827</v>
+      </c>
+      <c r="C151" s="205" t="s">
+        <v>898</v>
+      </c>
+      <c r="D151" s="157"/>
+      <c r="E151" s="145"/>
+      <c r="F151" s="187"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="200" t="s">
+        <v>848</v>
+      </c>
+      <c r="C152" s="201" t="s">
         <v>899</v>
       </c>
-      <c r="D142" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>959</v>
-      </c>
-      <c r="F142" s="186" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="200" t="s">
-        <v>931</v>
-      </c>
-      <c r="C143" s="179" t="s">
-        <v>900</v>
-      </c>
-      <c r="D143" s="157"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="186" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="200" t="s">
-        <v>852</v>
-      </c>
-      <c r="C144" s="179" t="s">
-        <v>901</v>
-      </c>
-      <c r="D144" s="157"/>
-      <c r="E144" s="11" t="s">
-        <v>981</v>
-      </c>
-      <c r="F144" s="186" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="200" t="s">
-        <v>832</v>
-      </c>
-      <c r="C145" s="179" t="s">
-        <v>902</v>
-      </c>
-      <c r="D145" s="157"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="186"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="206" t="s">
-        <v>832</v>
-      </c>
-      <c r="C146" s="207" t="s">
-        <v>903</v>
-      </c>
-      <c r="D146" s="158"/>
-      <c r="E146" s="146"/>
-      <c r="F146" s="189"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="202" t="s">
-        <v>853</v>
-      </c>
-      <c r="C147" s="203" t="s">
-        <v>904</v>
-      </c>
-      <c r="D147" s="204" t="s">
+      <c r="D152" s="202" t="s">
         <v>600</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E152" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="F147" s="205"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="135" t="s">
-        <v>854</v>
-      </c>
-      <c r="C148" s="179" t="s">
-        <v>905</v>
-      </c>
-      <c r="D148" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="F148" s="186"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="135" t="s">
-        <v>855</v>
-      </c>
-      <c r="C149" s="179" t="s">
-        <v>906</v>
-      </c>
-      <c r="D149" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="F149" s="186"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="135" t="s">
-        <v>856</v>
-      </c>
-      <c r="C150" s="179" t="s">
-        <v>907</v>
-      </c>
-      <c r="D150" s="157" t="s">
-        <v>600</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="F150" s="186"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="135" t="s">
-        <v>857</v>
-      </c>
-      <c r="C151" s="179" t="s">
-        <v>908</v>
-      </c>
-      <c r="D151" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="F151" s="186"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="135" t="s">
-        <v>858</v>
-      </c>
-      <c r="C152" s="179" t="s">
-        <v>909</v>
-      </c>
-      <c r="D152" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="F152" s="186"/>
+      <c r="F152" s="203"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="135" t="s">
+        <v>849</v>
+      </c>
+      <c r="C153" s="178" t="s">
+        <v>900</v>
+      </c>
+      <c r="D153" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F153" s="184"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="135" t="s">
+        <v>850</v>
+      </c>
+      <c r="C154" s="178" t="s">
+        <v>901</v>
+      </c>
+      <c r="D154" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="F154" s="184"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="135" t="s">
+        <v>851</v>
+      </c>
+      <c r="C155" s="178" t="s">
+        <v>902</v>
+      </c>
+      <c r="D155" s="156" t="s">
+        <v>600</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="F155" s="184"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="135" t="s">
+        <v>852</v>
+      </c>
+      <c r="C156" s="178" t="s">
+        <v>903</v>
+      </c>
+      <c r="D156" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F156" s="184"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="135" t="s">
+        <v>853</v>
+      </c>
+      <c r="C157" s="178" t="s">
+        <v>904</v>
+      </c>
+      <c r="D157" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F157" s="184"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="135" t="s">
+        <v>854</v>
+      </c>
+      <c r="C158" s="178" t="s">
+        <v>905</v>
+      </c>
+      <c r="D158" s="156" t="s">
+        <v>472</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F158" s="184" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="143" t="s">
+        <v>855</v>
+      </c>
+      <c r="C159" s="205" t="s">
+        <v>906</v>
+      </c>
+      <c r="D159" s="157" t="s">
+        <v>601</v>
+      </c>
+      <c r="E159" s="145" t="s">
+        <v>593</v>
+      </c>
+      <c r="F159" s="187"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="208" t="s">
+        <v>923</v>
+      </c>
+      <c r="C160" s="177" t="s">
+        <v>865</v>
+      </c>
+      <c r="D160" s="158"/>
+      <c r="E160" s="148"/>
+      <c r="F160" s="186" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="198" t="s">
+        <v>856</v>
+      </c>
+      <c r="C161" s="177" t="s">
+        <v>876</v>
+      </c>
+      <c r="D161" s="156"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="184"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="198" t="s">
+        <v>857</v>
+      </c>
+      <c r="C162" s="177" t="s">
+        <v>877</v>
+      </c>
+      <c r="D162" s="156"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="184"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="198" t="s">
+        <v>858</v>
+      </c>
+      <c r="C163" s="177" t="s">
+        <v>878</v>
+      </c>
+      <c r="D163" s="156"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="184"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="198" t="s">
         <v>859</v>
       </c>
-      <c r="C153" s="179" t="s">
-        <v>910</v>
-      </c>
-      <c r="D153" s="157" t="s">
-        <v>472</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="F153" s="186" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="144" t="s">
+      <c r="C164" s="177" t="s">
+        <v>879</v>
+      </c>
+      <c r="D164" s="156"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="184"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="210" t="s">
         <v>860</v>
       </c>
-      <c r="C154" s="207" t="s">
-        <v>911</v>
-      </c>
-      <c r="D154" s="158" t="s">
-        <v>601</v>
-      </c>
-      <c r="E154" s="146" t="s">
-        <v>593</v>
-      </c>
-      <c r="F154" s="189"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="210" t="s">
-        <v>928</v>
-      </c>
-      <c r="C155" s="178" t="s">
+      <c r="C165" s="177" t="s">
+        <v>880</v>
+      </c>
+      <c r="D165" s="156"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="184"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="198" t="s">
+        <v>931</v>
+      </c>
+      <c r="C166" s="177" t="s">
+        <v>881</v>
+      </c>
+      <c r="D166" s="156"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="184" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="209" t="s">
+        <v>861</v>
+      </c>
+      <c r="C167" s="206" t="s">
+        <v>882</v>
+      </c>
+      <c r="D167" s="157"/>
+      <c r="E167" s="145"/>
+      <c r="F167" s="187"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="208" t="s">
+        <v>932</v>
+      </c>
+      <c r="C168" s="207" t="s">
+        <v>883</v>
+      </c>
+      <c r="D168" s="158"/>
+      <c r="E168" s="148"/>
+      <c r="F168" s="186" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="198" t="s">
+        <v>934</v>
+      </c>
+      <c r="C169" s="177" t="s">
+        <v>884</v>
+      </c>
+      <c r="D169" s="156"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="184" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="198" t="s">
+        <v>827</v>
+      </c>
+      <c r="C170" s="177" t="s">
+        <v>885</v>
+      </c>
+      <c r="D170" s="156"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="184"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="198" t="s">
+        <v>827</v>
+      </c>
+      <c r="C171" s="177" t="s">
+        <v>886</v>
+      </c>
+      <c r="D171" s="156"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="184"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="210" t="s">
+        <v>862</v>
+      </c>
+      <c r="C172" s="177" t="s">
+        <v>887</v>
+      </c>
+      <c r="D172" s="156"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="184"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="210" t="s">
+        <v>863</v>
+      </c>
+      <c r="C173" s="177" t="s">
+        <v>888</v>
+      </c>
+      <c r="D173" s="156"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="184"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="198" t="s">
+        <v>936</v>
+      </c>
+      <c r="C174" s="177" t="s">
+        <v>889</v>
+      </c>
+      <c r="D174" s="156"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="184" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="199" t="s">
+        <v>864</v>
+      </c>
+      <c r="C175" s="206" t="s">
+        <v>890</v>
+      </c>
+      <c r="D175" s="160"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="188"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="211" t="s">
+        <v>867</v>
+      </c>
+      <c r="C176" s="192" t="s">
+        <v>866</v>
+      </c>
+      <c r="D176" s="155"/>
+      <c r="E176" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="D155" s="159"/>
-      <c r="E155" s="149"/>
-      <c r="F155" s="188" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="200" t="s">
-        <v>861</v>
-      </c>
-      <c r="C156" s="178" t="s">
-        <v>881</v>
-      </c>
-      <c r="D156" s="157"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="186"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="200" t="s">
-        <v>862</v>
-      </c>
-      <c r="C157" s="178" t="s">
-        <v>882</v>
-      </c>
-      <c r="D157" s="157"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="186"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="200" t="s">
-        <v>863</v>
-      </c>
-      <c r="C158" s="178" t="s">
-        <v>883</v>
-      </c>
-      <c r="D158" s="157"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="186"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="200" t="s">
-        <v>864</v>
-      </c>
-      <c r="C159" s="178" t="s">
-        <v>884</v>
-      </c>
-      <c r="D159" s="157"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="186"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="212" t="s">
-        <v>865</v>
-      </c>
-      <c r="C160" s="178" t="s">
-        <v>885</v>
-      </c>
-      <c r="D160" s="157"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="186"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="200" t="s">
-        <v>936</v>
-      </c>
-      <c r="C161" s="178" t="s">
-        <v>886</v>
-      </c>
-      <c r="D161" s="157"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="186" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="211" t="s">
-        <v>866</v>
-      </c>
-      <c r="C162" s="208" t="s">
-        <v>887</v>
-      </c>
-      <c r="D162" s="158"/>
-      <c r="E162" s="146"/>
-      <c r="F162" s="189"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="210" t="s">
-        <v>937</v>
-      </c>
-      <c r="C163" s="209" t="s">
-        <v>888</v>
-      </c>
-      <c r="D163" s="159"/>
-      <c r="E163" s="149"/>
-      <c r="F163" s="188" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="200" t="s">
-        <v>939</v>
-      </c>
-      <c r="C164" s="178" t="s">
-        <v>889</v>
-      </c>
-      <c r="D164" s="157"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="186" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="200" t="s">
-        <v>832</v>
-      </c>
-      <c r="C165" s="178" t="s">
-        <v>890</v>
-      </c>
-      <c r="D165" s="157"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="186"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="200" t="s">
-        <v>832</v>
-      </c>
-      <c r="C166" s="178" t="s">
-        <v>891</v>
-      </c>
-      <c r="D166" s="157"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="186"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="212" t="s">
-        <v>867</v>
-      </c>
-      <c r="C167" s="178" t="s">
-        <v>892</v>
-      </c>
-      <c r="D167" s="157"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="186"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="212" t="s">
+      <c r="F176" s="33"/>
+    </row>
+    <row r="177" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="212" t="s">
         <v>868</v>
       </c>
-      <c r="C168" s="178" t="s">
-        <v>893</v>
-      </c>
-      <c r="D168" s="157"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="186"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="200" t="s">
-        <v>941</v>
-      </c>
-      <c r="C169" s="178" t="s">
-        <v>894</v>
-      </c>
-      <c r="D169" s="157"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="186" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="201" t="s">
+      <c r="C177" s="193" t="s">
         <v>869</v>
       </c>
-      <c r="C170" s="208" t="s">
-        <v>895</v>
-      </c>
-      <c r="D170" s="161"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="190"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="213" t="s">
-        <v>872</v>
-      </c>
-      <c r="C171" s="194" t="s">
+      <c r="D177" s="160"/>
+      <c r="E177" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="D171" s="156"/>
-      <c r="E171" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="F171" s="33"/>
-    </row>
-    <row r="172" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="214" t="s">
-        <v>873</v>
-      </c>
-      <c r="C172" s="195" t="s">
-        <v>874</v>
-      </c>
-      <c r="D172" s="161"/>
-      <c r="E172" s="16" t="s">
-        <v>876</v>
-      </c>
-      <c r="F172" s="34"/>
+      <c r="F177" s="34"/>
     </row>
   </sheetData>
   <sortState ref="B93:F108">
